--- a/Year3_Project/Documents/Evaluations/Weekly Analysis Results/6-5/Linegraph.xlsx
+++ b/Year3_Project/Documents/Evaluations/Weekly Analysis Results/6-5/Linegraph.xlsx
@@ -112,187 +112,187 @@
                   <c:v>Number of Epochs</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14500</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>18500</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>23500</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24500</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25500</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>26500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>27500</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28500</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29500</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -304,187 +304,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>0.154116126510043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154125234678153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.154168632120786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.154178545084271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.154264300036061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.154271742278836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154383330815537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.154390133809026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15439510051163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.154401282859224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.154429839657681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.154469494159595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.154513454377253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15451675732677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.154542031586776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.154569087821357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.154613697166789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.154623200845203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.154675205091879</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.154692036875237</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.154721691492993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.154749191540852</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.154751782754102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.154760290373655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15478727228059</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.154789468597659</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.154808056572575</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.154808503033178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.154814868522846</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.155035155721611</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.155255506279528</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.155433243496393</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.155728108838255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.155766786902874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.155885720566241</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.155984654824021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.156100854897301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.156287576358033</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.156479924462197</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.156539655488187</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.156635723940393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.156746298532659</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.156775342793769</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.156946764427646</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.156950108101871</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.156973001515738</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.157097477721355</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.157113986953844</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.157193905253803</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.157234787280885</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.157237667018754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.157290948761065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.157556503666126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.157678785842452</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.15803822863541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15909211723042</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.159445048188595</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.160431748627047</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.161192459601665</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.161247059341444</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.169241275988439</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.156973001515738</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.155885720566241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.156287576358033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.156539655488187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.156746298532659</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.156946764427646</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.157113986953844</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.157234787280885</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.157290948761065</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.157237667018754</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.157097477721355</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.156950108101871</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.156775342793769</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.156479924462197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.156100854897301</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.155728108838255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.155255506279528</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.155766786902874</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.157678785842452</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15909211723042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.160431748627047</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.161247059341444</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.161192459601665</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.159445048188595</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15803822863541</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.157556503666126</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.157193905253803</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.156635723940393</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.155984654824021</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.155433243496393</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.155035155721611</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.154751782754102</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.154542031586776</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.154383330815537</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.154264300036061</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.154178545084271</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.154125234678153</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.154116126510043</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.154168632120786</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.154271742278836</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.15439510051163</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.154513454377253</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.154613697166789</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.154692036875237</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.154749191540852</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.15478727228059</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.154808503033178</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.154814868522846</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.154808056572575</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.154789468597659</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.154760290373655</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.154721691492993</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.154675205091879</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.154623200845203</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.154569087821357</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.15451675732677</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.154469494159595</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.154429839657681</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.154401282859224</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.154390133809026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,187 +517,187 @@
                   <c:v>Number of Epochs</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14500</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>18500</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>23500</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24500</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25500</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>26500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>27500</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28500</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29500</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,211 +709,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>0.0237517804504598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0237545879645959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0237679671299942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0237710237643026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0237974742656159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0237997704657478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0238342128336998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0238363134175692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0238378470619963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0238397561485741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0238485753766971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0238608246259211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0238744075835916</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02387542829478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0238832395269682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0238916029099264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0239053953515836</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0239083342396161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.023924419070215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0239296262726098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0239388018184529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0239473122825475</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.023948114265573</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0239507474765382</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0239590996600656</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0239597795887457</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0239655343797777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0239656726113736</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0239676435157462</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0240358995096242</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0241042722301126</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0241594931838091</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0242512438823396</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0242632919020453</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0243003578764564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.024331212540569</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0243674768996683</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0244258065238682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0244859667596949</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0245046637403604</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0245347500143312</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0245694021036896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.024578508108104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.024632286864307</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0246333364331891</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0246405232048601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0246796175064117</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0246848048965329</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0247099238489416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0247227783312651</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0247236839295006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0247404425621559</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.024824051847494</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.02486259950475</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0249760817102182</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0253103017648577</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0254227233918636</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.025738345967532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0259830090324346</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0260006141462633</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.0286426094981949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0246405232048601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0243003578764564</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0244258065238682</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0245046637403604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0245694021036896</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.024632286864307</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0246848048965329</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0247227783312651</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0247404425621559</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0247236839295006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0246796175064117</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0246333364331891</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.024578508108104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0244859667596949</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0243674768996683</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0242512438823396</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0241042722301126</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0242632919020453</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.02486259950475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0253103017648577</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.025738345967532</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0260006141462633</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0259830090324346</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0254227233918636</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0249760817102182</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.024824051847494</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0247099238489416</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0245347500143312</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.024331212540569</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0241594931838091</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0240358995096242</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.023948114265573</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0238832395269682</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0238342128336998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0237974742656159</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0237710237643026</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0237545879645959</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0237517804504598</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0237679671299942</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0237997704657478</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0238378470619963</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0238744075835916</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0239053953515836</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0239296262726098</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0239473122825475</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0239590996600656</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0239656726113736</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0239676435157462</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0239655343797777</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0239597795887457</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0239507474765382</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0239388018184529</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.023924419070215</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0239083342396161</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0238916029099264</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.02387542829478</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0238608246259211</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0238485753766971</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.0238397561485741</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0238363134175692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84683128"/>
-        <c:axId val="349352168"/>
+        <c:axId val="393881048"/>
+        <c:axId val="299371048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84683128"/>
+        <c:axId val="393881048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349352168"/>
+        <c:crossAx val="299371048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349352168"/>
+        <c:axId val="299371048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +921,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84683128"/>
+        <c:crossAx val="393881048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.01"/>
@@ -945,16 +945,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1317,677 +1317,679 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.16924127598843899</v>
+        <v>0.154116126510043</v>
       </c>
       <c r="B2">
-        <v>2.8642609498194901E-2</v>
+        <v>2.3751780450459802E-2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.15697300151573801</v>
+        <v>0.15412523467815301</v>
       </c>
       <c r="B3">
-        <v>2.4640523204860099E-2</v>
+        <v>2.37545879645959E-2</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.155885720566241</v>
+        <v>0.15416863212078599</v>
       </c>
       <c r="B4">
-        <v>2.4300357876456399E-2</v>
+        <v>2.37679671299942E-2</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.156287576358033</v>
+        <v>0.15417854508427101</v>
       </c>
       <c r="B5">
-        <v>2.44258065238682E-2</v>
+        <v>2.3771023764302599E-2</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.15653965548818699</v>
+        <v>0.15426430003606101</v>
       </c>
       <c r="B6">
-        <v>2.4504663740360401E-2</v>
+        <v>2.37974742656159E-2</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.15674629853265901</v>
+        <v>0.154271742278836</v>
       </c>
       <c r="B7">
-        <v>2.4569402103689599E-2</v>
+        <v>2.3799770465747799E-2</v>
       </c>
       <c r="C7">
-        <v>2500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.15694676442764599</v>
+        <v>0.15438333081553701</v>
       </c>
       <c r="B8">
-        <v>2.4632286864307001E-2</v>
+        <v>2.3834212833699801E-2</v>
       </c>
       <c r="C8">
-        <v>3000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.15711398695384399</v>
+        <v>0.154390133809026</v>
       </c>
       <c r="B9">
-        <v>2.4684804896532901E-2</v>
+        <v>2.3836313417569199E-2</v>
       </c>
       <c r="C9">
-        <v>3500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.157234787280885</v>
+        <v>0.15439510051163</v>
       </c>
       <c r="B10">
-        <v>2.4722778331265099E-2</v>
+        <v>2.3837847061996299E-2</v>
       </c>
       <c r="C10">
-        <v>4000</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.157290948761065</v>
+        <v>0.154401282859224</v>
       </c>
       <c r="B11">
-        <v>2.47404425621559E-2</v>
+        <v>2.3839756148574101E-2</v>
       </c>
       <c r="C11">
-        <v>4500</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.157237667018754</v>
+        <v>0.15442983965768101</v>
       </c>
       <c r="B12">
-        <v>2.4723683929500601E-2</v>
+        <v>2.3848575376697101E-2</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.15709747772135499</v>
+        <v>0.15446949415959499</v>
       </c>
       <c r="B13">
-        <v>2.4679617506411702E-2</v>
+        <v>2.3860824625921099E-2</v>
       </c>
       <c r="C13">
-        <v>5500</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.15695010810187099</v>
+        <v>0.154513454377253</v>
       </c>
       <c r="B14">
-        <v>2.4633336433189101E-2</v>
+        <v>2.3874407583591599E-2</v>
       </c>
       <c r="C14">
-        <v>6000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.15677534279376901</v>
+        <v>0.15451675732677</v>
       </c>
       <c r="B15">
-        <v>2.4578508108104E-2</v>
+        <v>2.387542829478E-2</v>
       </c>
       <c r="C15">
-        <v>6500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.156479924462197</v>
+        <v>0.15454203158677601</v>
       </c>
       <c r="B16">
-        <v>2.4485966759694899E-2</v>
+        <v>2.3883239526968199E-2</v>
       </c>
       <c r="C16">
-        <v>7000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.15610085489730099</v>
+        <v>0.154569087821357</v>
       </c>
       <c r="B17">
-        <v>2.4367476899668301E-2</v>
+        <v>2.3891602909926399E-2</v>
       </c>
       <c r="C17">
-        <v>7500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.155728108838255</v>
+        <v>0.15461369716678899</v>
       </c>
       <c r="B18">
-        <v>2.4251243882339599E-2</v>
+        <v>2.3905395351583598E-2</v>
       </c>
       <c r="C18">
-        <v>8000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.155255506279528</v>
+        <v>0.15462320084520301</v>
       </c>
       <c r="B19">
-        <v>2.4104272230112599E-2</v>
+        <v>2.3908334239616101E-2</v>
       </c>
       <c r="C19">
-        <v>8500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.15576678690287399</v>
+        <v>0.15467520509187899</v>
       </c>
       <c r="B20">
-        <v>2.4263291902045299E-2</v>
+        <v>2.3924419070214999E-2</v>
       </c>
       <c r="C20">
-        <v>9000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.15767878584245201</v>
+        <v>0.154692036875237</v>
       </c>
       <c r="B21">
-        <v>2.4862599504750001E-2</v>
+        <v>2.3929626272609798E-2</v>
       </c>
       <c r="C21">
-        <v>9500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.15909211723041999</v>
+        <v>0.154721691492993</v>
       </c>
       <c r="B22">
-        <v>2.5310301764857698E-2</v>
+        <v>2.3938801818452898E-2</v>
       </c>
       <c r="C22">
-        <v>10000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.16043174862704701</v>
+        <v>0.15474919154085201</v>
       </c>
       <c r="B23">
-        <v>2.5738345967532002E-2</v>
+        <v>2.3947312282547501E-2</v>
       </c>
       <c r="C23">
-        <v>10500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.16124705934144401</v>
+        <v>0.15475178275410201</v>
       </c>
       <c r="B24">
-        <v>2.6000614146263298E-2</v>
+        <v>2.3948114265573001E-2</v>
       </c>
       <c r="C24">
-        <v>11000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.16119245960166501</v>
+        <v>0.15476029037365499</v>
       </c>
       <c r="B25">
-        <v>2.5983009032434601E-2</v>
+        <v>2.3950747476538199E-2</v>
       </c>
       <c r="C25">
-        <v>11500</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.15944504818859501</v>
+        <v>0.15478727228059</v>
       </c>
       <c r="B26">
-        <v>2.5422723391863598E-2</v>
+        <v>2.39590996600656E-2</v>
       </c>
       <c r="C26">
-        <v>12000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.15803822863541001</v>
+        <v>0.15478946859765899</v>
       </c>
       <c r="B27">
-        <v>2.4976081710218201E-2</v>
+        <v>2.3959779588745699E-2</v>
       </c>
       <c r="C27">
-        <v>12500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.157556503666126</v>
+        <v>0.15480805657257499</v>
       </c>
       <c r="B28">
-        <v>2.4824051847493998E-2</v>
+        <v>2.3965534379777699E-2</v>
       </c>
       <c r="C28">
-        <v>13000</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.157193905253803</v>
+        <v>0.154808503033178</v>
       </c>
       <c r="B29">
-        <v>2.4709923848941599E-2</v>
+        <v>2.3965672611373601E-2</v>
       </c>
       <c r="C29">
-        <v>13500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.15663572394039299</v>
+        <v>0.15481486852284601</v>
       </c>
       <c r="B30">
-        <v>2.45347500143312E-2</v>
+        <v>2.39676435157462E-2</v>
       </c>
       <c r="C30">
-        <v>14000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.15598465482402099</v>
+        <v>0.155035155721611</v>
       </c>
       <c r="B31">
-        <v>2.4331212540569001E-2</v>
+        <v>2.40358995096242E-2</v>
       </c>
       <c r="C31">
-        <v>14500</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.15543324349639301</v>
+        <v>0.155255506279528</v>
       </c>
       <c r="B32">
-        <v>2.4159493183809101E-2</v>
+        <v>2.4104272230112599E-2</v>
       </c>
       <c r="C32">
-        <v>15000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.155035155721611</v>
+        <v>0.15543324349639301</v>
       </c>
       <c r="B33">
-        <v>2.40358995096242E-2</v>
+        <v>2.4159493183809101E-2</v>
       </c>
       <c r="C33">
-        <v>15500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.15475178275410201</v>
+        <v>0.155728108838255</v>
       </c>
       <c r="B34">
-        <v>2.3948114265573001E-2</v>
+        <v>2.4251243882339599E-2</v>
       </c>
       <c r="C34">
-        <v>16000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.15454203158677601</v>
+        <v>0.15576678690287399</v>
       </c>
       <c r="B35">
-        <v>2.3883239526968199E-2</v>
+        <v>2.4263291902045299E-2</v>
       </c>
       <c r="C35">
-        <v>16500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.15438333081553701</v>
+        <v>0.155885720566241</v>
       </c>
       <c r="B36">
-        <v>2.3834212833699801E-2</v>
+        <v>2.4300357876456399E-2</v>
       </c>
       <c r="C36">
-        <v>17000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.15426430003606101</v>
+        <v>0.15598465482402099</v>
       </c>
       <c r="B37">
-        <v>2.37974742656159E-2</v>
+        <v>2.4331212540569001E-2</v>
       </c>
       <c r="C37">
-        <v>17500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.15417854508427101</v>
+        <v>0.15610085489730099</v>
       </c>
       <c r="B38">
-        <v>2.3771023764302599E-2</v>
+        <v>2.4367476899668301E-2</v>
       </c>
       <c r="C38">
-        <v>18000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.15412523467815301</v>
+        <v>0.156287576358033</v>
       </c>
       <c r="B39">
-        <v>2.37545879645959E-2</v>
+        <v>2.44258065238682E-2</v>
       </c>
       <c r="C39">
-        <v>18500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.154116126510043</v>
+        <v>0.156479924462197</v>
       </c>
       <c r="B40">
-        <v>2.3751780450459802E-2</v>
+        <v>2.4485966759694899E-2</v>
       </c>
       <c r="C40">
-        <v>19000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.15416863212078599</v>
+        <v>0.15653965548818699</v>
       </c>
       <c r="B41">
-        <v>2.37679671299942E-2</v>
+        <v>2.4504663740360401E-2</v>
       </c>
       <c r="C41">
-        <v>19500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.154271742278836</v>
+        <v>0.15663572394039299</v>
       </c>
       <c r="B42">
-        <v>2.3799770465747799E-2</v>
+        <v>2.45347500143312E-2</v>
       </c>
       <c r="C42">
-        <v>20000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.15439510051163</v>
+        <v>0.15674629853265901</v>
       </c>
       <c r="B43">
-        <v>2.3837847061996299E-2</v>
+        <v>2.4569402103689599E-2</v>
       </c>
       <c r="C43">
-        <v>20500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.154513454377253</v>
+        <v>0.15677534279376901</v>
       </c>
       <c r="B44">
-        <v>2.3874407583591599E-2</v>
+        <v>2.4578508108104E-2</v>
       </c>
       <c r="C44">
-        <v>21000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.15461369716678899</v>
+        <v>0.15694676442764599</v>
       </c>
       <c r="B45">
-        <v>2.3905395351583598E-2</v>
+        <v>2.4632286864307001E-2</v>
       </c>
       <c r="C45">
-        <v>21500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.154692036875237</v>
+        <v>0.15695010810187099</v>
       </c>
       <c r="B46">
-        <v>2.3929626272609798E-2</v>
+        <v>2.4633336433189101E-2</v>
       </c>
       <c r="C46">
-        <v>22000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.15474919154085201</v>
+        <v>0.15697300151573801</v>
       </c>
       <c r="B47">
-        <v>2.3947312282547501E-2</v>
+        <v>2.4640523204860099E-2</v>
       </c>
       <c r="C47">
-        <v>22500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.15478727228059</v>
+        <v>0.15709747772135499</v>
       </c>
       <c r="B48">
-        <v>2.39590996600656E-2</v>
+        <v>2.4679617506411702E-2</v>
       </c>
       <c r="C48">
-        <v>23000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.154808503033178</v>
+        <v>0.15711398695384399</v>
       </c>
       <c r="B49">
-        <v>2.3965672611373601E-2</v>
+        <v>2.4684804896532901E-2</v>
       </c>
       <c r="C49">
-        <v>23500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.15481486852284601</v>
+        <v>0.157193905253803</v>
       </c>
       <c r="B50">
-        <v>2.39676435157462E-2</v>
+        <v>2.4709923848941599E-2</v>
       </c>
       <c r="C50">
-        <v>24000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.15480805657257499</v>
+        <v>0.157234787280885</v>
       </c>
       <c r="B51">
-        <v>2.3965534379777699E-2</v>
+        <v>2.4722778331265099E-2</v>
       </c>
       <c r="C51">
-        <v>24500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.15478946859765899</v>
+        <v>0.157237667018754</v>
       </c>
       <c r="B52">
-        <v>2.3959779588745699E-2</v>
+        <v>2.4723683929500601E-2</v>
       </c>
       <c r="C52">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.15476029037365499</v>
+        <v>0.157290948761065</v>
       </c>
       <c r="B53">
-        <v>2.3950747476538199E-2</v>
+        <v>2.47404425621559E-2</v>
       </c>
       <c r="C53">
-        <v>25500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.154721691492993</v>
+        <v>0.157556503666126</v>
       </c>
       <c r="B54">
-        <v>2.3938801818452898E-2</v>
+        <v>2.4824051847493998E-2</v>
       </c>
       <c r="C54">
-        <v>26000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.15467520509187899</v>
+        <v>0.15767878584245201</v>
       </c>
       <c r="B55">
-        <v>2.3924419070214999E-2</v>
+        <v>2.4862599504750001E-2</v>
       </c>
       <c r="C55">
-        <v>26500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.15462320084520301</v>
+        <v>0.15803822863541001</v>
       </c>
       <c r="B56">
-        <v>2.3908334239616101E-2</v>
+        <v>2.4976081710218201E-2</v>
       </c>
       <c r="C56">
-        <v>27000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.154569087821357</v>
+        <v>0.15909211723041999</v>
       </c>
       <c r="B57">
-        <v>2.3891602909926399E-2</v>
+        <v>2.5310301764857698E-2</v>
       </c>
       <c r="C57">
-        <v>27500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.15451675732677</v>
+        <v>0.15944504818859501</v>
       </c>
       <c r="B58">
-        <v>2.387542829478E-2</v>
+        <v>2.5422723391863598E-2</v>
       </c>
       <c r="C58">
-        <v>28000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.15446949415959499</v>
+        <v>0.16043174862704701</v>
       </c>
       <c r="B59">
-        <v>2.3860824625921099E-2</v>
+        <v>2.5738345967532002E-2</v>
       </c>
       <c r="C59">
-        <v>28500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.15442983965768101</v>
+        <v>0.16119245960166501</v>
       </c>
       <c r="B60">
-        <v>2.3848575376697101E-2</v>
+        <v>2.5983009032434601E-2</v>
       </c>
       <c r="C60">
-        <v>29000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.154401282859224</v>
+        <v>0.16124705934144401</v>
       </c>
       <c r="B61">
-        <v>2.3839756148574101E-2</v>
+        <v>2.6000614146263298E-2</v>
       </c>
       <c r="C61">
-        <v>29500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.154390133809026</v>
+        <v>0.16924127598843899</v>
       </c>
       <c r="B62">
-        <v>2.3836313417569199E-2</v>
+        <v>2.8642609498194901E-2</v>
       </c>
       <c r="C62">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A2:XFD1048576">
+    <sortCondition ref="B3:B1048576"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
